--- a/Factures_Excel/1659 - Janso.xlsx
+++ b/Factures_Excel/1659 - Janso.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\Facturation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\Factures_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2241EC60-C468-42F6-A58E-5F0767E95E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10D9F17-348A-486A-B621-AFB09BBB15C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-105" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="15-10-22" sheetId="4" r:id="rId1"/>
     <sheet name="Activités" sheetId="5" r:id="rId2"/>
     <sheet name="2024-09-07 - 24-24511" sheetId="6" r:id="rId3"/>
+    <sheet name="2025-03-31 - 25-24860" sheetId="7" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="dnrServices">OFFSET([1]Admin!$Z$11,,,COUNTA([1]Admin!$Z:$Z)-1,1)</definedName>
@@ -26,6 +27,7 @@
     <definedName name="Print_Area" localSheetId="0">'15-10-22'!$A$1:$F$89</definedName>
     <definedName name="Print_Area" localSheetId="1">Activités!$A$1:$D$53</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'15-10-22'!$A$1:$F$89</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'2025-03-31 - 25-24860'!$A$1:$F$88</definedName>
     <definedName name="Zone_impres_MI">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="89">
   <si>
     <t>NOTE D'HONORAIRES</t>
   </si>
@@ -288,23 +290,48 @@
   </si>
   <si>
     <t>Frais d'expert en taxes</t>
+  </si>
+  <si>
+    <t>Le 31 MARS 2025</t>
+  </si>
+  <si>
+    <t>L'Assomption, Québec, J5W 4R9</t>
+  </si>
+  <si>
+    <t>25-24860</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Diverses discussions téléphoniques avec vous et votre comptable;</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Recueullir les différentes informations pertinentes à l'analyse des impacts fiscaux selon différents scénarios;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Préparation à la rencontre et rencontre avec votre comptable par Vidéoconférence;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Préparation de différentes simulations pour déterminer l'impact fiscal des différents scénarios de vente d'immeubles/actions ;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
-    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_)\ _$_ ;_ * \(#,##0.00\)\ _$_ ;_ * &quot;-&quot;??_)\ _$_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;$&quot;_-;[Red]#,##0.00\ &quot;$&quot;\-"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00\ [$$-C0C]_);\(#,##0.00\ [$$-C0C]\)"/>
-    <numFmt numFmtId="167" formatCode="0.000%"/>
-    <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;$&quot;"/>
-    <numFmt numFmtId="169" formatCode="##0.00"/>
+  <numFmts count="9">
+    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;$&quot;_);\(#,##0.00\ &quot;$&quot;\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0.00_)\ _$_ ;_ * \(#,##0.00\)\ _$_ ;_ * &quot;-&quot;??_)\ _$_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="#,##0.00\ &quot;$&quot;_-;[Red]#,##0.00\ &quot;$&quot;\-"/>
+    <numFmt numFmtId="168" formatCode="#,##0.00\ [$$-C0C]_);\(#,##0.00\ [$$-C0C]\)"/>
+    <numFmt numFmtId="169" formatCode="0.000%"/>
+    <numFmt numFmtId="170" formatCode="#,##0.00\ &quot;$&quot;"/>
+    <numFmt numFmtId="171" formatCode="##0.00"/>
   </numFmts>
-  <fonts count="47" x14ac:knownFonts="1">
+  <fonts count="50" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -612,8 +639,30 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF625850"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -635,6 +684,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,20 +892,20 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -887,26 +942,26 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="7" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="7" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="19" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -915,10 +970,10 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -932,58 +987,22 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="7" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="39" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="7" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="4" fontId="24" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="24" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -998,7 +1017,7 @@
     <xf numFmtId="4" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -1013,7 +1032,7 @@
     <xf numFmtId="4" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -1025,11 +1044,8 @@
     <xf numFmtId="4" fontId="25" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="25" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="25" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1047,7 +1063,7 @@
     <xf numFmtId="4" fontId="31" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -1062,10 +1078,10 @@
     <xf numFmtId="2" fontId="32" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="168" fontId="32" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="32" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="168" fontId="29" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="29" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="2" fontId="32" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1083,31 +1099,31 @@
     <xf numFmtId="4" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="22" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="22" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="22" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="22" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="36" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="36" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="29" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -1125,111 +1141,238 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="39" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="39" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="16" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="17" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="17" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="17" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="17" fillId="0" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="170" fontId="38" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="16" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="20" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="20" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="19" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="20" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="20" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="24" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="17" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="7" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="17" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="17" fillId="0" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="168" fontId="38" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="49" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="16" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="20" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="48" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="19" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="20" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1428,6 +1571,72 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>210062</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3073" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{001A95D6-B3BB-787B-9740-BF1DAF6A7CE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="11678161" cy="3175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2195,14 +2404,14 @@
       <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="62" t="s">
+      <c r="A30" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
+      <c r="B30" s="140"/>
+      <c r="C30" s="140"/>
+      <c r="D30" s="140"/>
+      <c r="E30" s="140"/>
+      <c r="F30" s="140"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
@@ -2223,263 +2432,263 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
+      <c r="B33" s="139"/>
+      <c r="C33" s="139"/>
+      <c r="D33" s="139"/>
       <c r="E33" s="29"/>
       <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
+      <c r="B34" s="139"/>
+      <c r="C34" s="139"/>
+      <c r="D34" s="139"/>
       <c r="E34" s="29"/>
       <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
-      <c r="B35" s="59" t="s">
+      <c r="B35" s="139" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
+      <c r="C35" s="139"/>
+      <c r="D35" s="139"/>
       <c r="E35" s="29"/>
       <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="22"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
+      <c r="B36" s="139"/>
+      <c r="C36" s="139"/>
+      <c r="D36" s="139"/>
       <c r="E36" s="29"/>
       <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
-      <c r="B37" s="59" t="s">
+      <c r="B37" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
+      <c r="C37" s="139"/>
+      <c r="D37" s="139"/>
       <c r="E37" s="29"/>
       <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="22"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
+      <c r="B38" s="139"/>
+      <c r="C38" s="139"/>
+      <c r="D38" s="139"/>
       <c r="E38" s="29"/>
       <c r="F38" s="22"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
-      <c r="B39" s="59" t="s">
+      <c r="B39" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
+      <c r="C39" s="139"/>
+      <c r="D39" s="139"/>
       <c r="E39" s="29"/>
       <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
+      <c r="B40" s="139"/>
+      <c r="C40" s="139"/>
+      <c r="D40" s="139"/>
       <c r="E40" s="29"/>
       <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
+      <c r="B41" s="139"/>
+      <c r="C41" s="139"/>
+      <c r="D41" s="139"/>
       <c r="E41" s="29"/>
       <c r="F41" s="22"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="22"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
+      <c r="B42" s="139"/>
+      <c r="C42" s="139"/>
+      <c r="D42" s="139"/>
       <c r="E42" s="29"/>
       <c r="F42" s="22"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
+      <c r="B43" s="139"/>
+      <c r="C43" s="139"/>
+      <c r="D43" s="139"/>
       <c r="E43" s="29"/>
       <c r="F43" s="22"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
+      <c r="B44" s="139"/>
+      <c r="C44" s="139"/>
+      <c r="D44" s="139"/>
       <c r="E44" s="29"/>
       <c r="F44" s="22"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
+      <c r="B45" s="139"/>
+      <c r="C45" s="139"/>
+      <c r="D45" s="139"/>
       <c r="E45" s="29"/>
       <c r="F45" s="22"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
+      <c r="B46" s="139"/>
+      <c r="C46" s="139"/>
+      <c r="D46" s="139"/>
       <c r="E46" s="29"/>
       <c r="F46" s="22"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
+      <c r="B47" s="139"/>
+      <c r="C47" s="139"/>
+      <c r="D47" s="139"/>
       <c r="E47" s="29"/>
       <c r="F47" s="22"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="22"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
+      <c r="B48" s="139"/>
+      <c r="C48" s="139"/>
+      <c r="D48" s="139"/>
       <c r="E48" s="29"/>
       <c r="F48" s="22"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
+      <c r="B49" s="139"/>
+      <c r="C49" s="139"/>
+      <c r="D49" s="139"/>
       <c r="E49" s="29"/>
       <c r="F49" s="22"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="22"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
+      <c r="B50" s="139"/>
+      <c r="C50" s="139"/>
+      <c r="D50" s="139"/>
       <c r="E50" s="29"/>
       <c r="F50" s="22"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="22"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
+      <c r="B51" s="139"/>
+      <c r="C51" s="139"/>
+      <c r="D51" s="139"/>
       <c r="E51" s="29"/>
       <c r="F51" s="22"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="22"/>
-      <c r="B52" s="59"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
+      <c r="B52" s="139"/>
+      <c r="C52" s="139"/>
+      <c r="D52" s="139"/>
       <c r="E52" s="29"/>
       <c r="F52" s="22"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="22"/>
-      <c r="B53" s="59"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
+      <c r="B53" s="139"/>
+      <c r="C53" s="139"/>
+      <c r="D53" s="139"/>
       <c r="E53" s="29"/>
       <c r="F53" s="22"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="22"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
+      <c r="B54" s="139"/>
+      <c r="C54" s="139"/>
+      <c r="D54" s="139"/>
       <c r="E54" s="29"/>
       <c r="F54" s="22"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="22"/>
-      <c r="B55" s="59"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
+      <c r="B55" s="139"/>
+      <c r="C55" s="139"/>
+      <c r="D55" s="139"/>
       <c r="E55" s="29"/>
       <c r="F55" s="22"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="22"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
+      <c r="B56" s="139"/>
+      <c r="C56" s="139"/>
+      <c r="D56" s="139"/>
       <c r="E56" s="29"/>
       <c r="F56" s="22"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="22"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
+      <c r="B57" s="139"/>
+      <c r="C57" s="139"/>
+      <c r="D57" s="139"/>
       <c r="E57" s="29"/>
       <c r="F57" s="22"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="22"/>
-      <c r="B58" s="59"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
+      <c r="B58" s="139"/>
+      <c r="C58" s="139"/>
+      <c r="D58" s="139"/>
       <c r="E58" s="29"/>
       <c r="F58" s="22"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="22"/>
-      <c r="B59" s="59"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
+      <c r="B59" s="139"/>
+      <c r="C59" s="139"/>
+      <c r="D59" s="139"/>
       <c r="E59" s="29"/>
       <c r="F59" s="22"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="22"/>
-      <c r="B60" s="59"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="59"/>
+      <c r="B60" s="139"/>
+      <c r="C60" s="139"/>
+      <c r="D60" s="139"/>
       <c r="E60" s="29"/>
       <c r="F60" s="22"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="22"/>
-      <c r="B61" s="59"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="59"/>
+      <c r="B61" s="139"/>
+      <c r="C61" s="139"/>
+      <c r="D61" s="139"/>
       <c r="E61" s="29"/>
       <c r="F61" s="22"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="22"/>
-      <c r="B62" s="59"/>
-      <c r="C62" s="59"/>
-      <c r="D62" s="59"/>
+      <c r="B62" s="139"/>
+      <c r="C62" s="139"/>
+      <c r="D62" s="139"/>
       <c r="E62" s="29"/>
       <c r="F62" s="22"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="22"/>
-      <c r="B63" s="59"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="59"/>
+      <c r="B63" s="139"/>
+      <c r="C63" s="139"/>
+      <c r="D63" s="139"/>
       <c r="E63" s="29"/>
       <c r="F63" s="22"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="22"/>
-      <c r="B64" s="59"/>
-      <c r="C64" s="59"/>
-      <c r="D64" s="59"/>
+      <c r="B64" s="139"/>
+      <c r="C64" s="139"/>
+      <c r="D64" s="139"/>
       <c r="E64" s="29"/>
       <c r="F64" s="22"/>
     </row>
@@ -2509,17 +2718,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="22"/>
-      <c r="B67" s="59"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="59"/>
+      <c r="B67" s="139"/>
+      <c r="C67" s="139"/>
+      <c r="D67" s="139"/>
       <c r="E67" s="29"/>
       <c r="F67" s="22"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="22"/>
-      <c r="B68" s="59"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="59"/>
+      <c r="B68" s="139"/>
+      <c r="C68" s="139"/>
+      <c r="D68" s="139"/>
       <c r="E68" s="29"/>
       <c r="F68" s="22"/>
     </row>
@@ -2626,19 +2835,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="22"/>
-      <c r="B77" s="63"/>
-      <c r="C77" s="63"/>
-      <c r="D77" s="63"/>
+      <c r="B77" s="141"/>
+      <c r="C77" s="141"/>
+      <c r="D77" s="141"/>
       <c r="E77" s="37"/>
       <c r="F77" s="22"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="22"/>
-      <c r="B78" s="60" t="s">
+      <c r="B78" s="146" t="s">
         <v>20</v>
       </c>
-      <c r="C78" s="60"/>
-      <c r="D78" s="60"/>
+      <c r="C78" s="146"/>
+      <c r="D78" s="146"/>
       <c r="E78" s="37">
         <v>0</v>
       </c>
@@ -2646,9 +2855,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="22"/>
-      <c r="B79" s="63"/>
-      <c r="C79" s="63"/>
-      <c r="D79" s="63"/>
+      <c r="B79" s="141"/>
+      <c r="C79" s="141"/>
+      <c r="D79" s="141"/>
       <c r="E79" s="37"/>
       <c r="F79" s="22"/>
     </row>
@@ -2683,31 +2892,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="22"/>
-      <c r="B83" s="57"/>
-      <c r="C83" s="57"/>
-      <c r="D83" s="57"/>
-      <c r="E83" s="57"/>
+      <c r="B83" s="144"/>
+      <c r="C83" s="144"/>
+      <c r="D83" s="144"/>
+      <c r="E83" s="144"/>
       <c r="F83" s="22"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="65" t="s">
+      <c r="A84" s="138" t="s">
         <v>37</v>
       </c>
-      <c r="B84" s="65"/>
-      <c r="C84" s="65"/>
-      <c r="D84" s="65"/>
-      <c r="E84" s="65"/>
-      <c r="F84" s="65"/>
+      <c r="B84" s="138"/>
+      <c r="C84" s="138"/>
+      <c r="D84" s="138"/>
+      <c r="E84" s="138"/>
+      <c r="F84" s="138"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="61" t="s">
+      <c r="A85" s="147" t="s">
         <v>38</v>
       </c>
-      <c r="B85" s="61"/>
-      <c r="C85" s="61"/>
-      <c r="D85" s="61"/>
-      <c r="E85" s="61"/>
-      <c r="F85" s="61"/>
+      <c r="B85" s="147"/>
+      <c r="C85" s="147"/>
+      <c r="D85" s="147"/>
+      <c r="E85" s="147"/>
+      <c r="F85" s="147"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="22"/>
@@ -2719,26 +2928,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="22"/>
-      <c r="B87" s="58"/>
-      <c r="C87" s="58"/>
-      <c r="D87" s="58"/>
-      <c r="E87" s="58"/>
+      <c r="B87" s="145"/>
+      <c r="C87" s="145"/>
+      <c r="D87" s="145"/>
+      <c r="E87" s="145"/>
       <c r="F87" s="22"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="64" t="s">
+      <c r="A88" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="64"/>
-      <c r="C88" s="64"/>
-      <c r="D88" s="64"/>
-      <c r="E88" s="64"/>
-      <c r="F88" s="64"/>
+      <c r="B88" s="137"/>
+      <c r="C88" s="137"/>
+      <c r="D88" s="137"/>
+      <c r="E88" s="137"/>
+      <c r="F88" s="137"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="55"/>
-      <c r="C90" s="56"/>
-      <c r="D90" s="56"/>
+      <c r="B90" s="142"/>
+      <c r="C90" s="143"/>
+      <c r="D90" s="143"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -2748,34 +2957,6 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B55:D55"/>
     <mergeCell ref="B90:D90"/>
     <mergeCell ref="B83:E83"/>
     <mergeCell ref="B87:E87"/>
@@ -2792,6 +2973,34 @@
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B53:D53"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -2828,10 +3037,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="66"/>
+      <c r="C1" s="148"/>
       <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3253,814 +3462,814 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E40D9E9-FDF7-42D1-A5F8-6EDA0B4722FB}">
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.140625" style="51" customWidth="1"/>
     <col min="2" max="2" width="120" style="51" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" style="51" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="159" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="160" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="160" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="135" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="136" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="136" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="67"/>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
+      <c r="A1" s="55"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
     </row>
     <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
     </row>
     <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="67"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="67"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="67"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
     </row>
     <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="67"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="67"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
     </row>
     <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="67"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="67"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
     </row>
     <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="67"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="67"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
     </row>
     <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="67"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
     </row>
     <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="67"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
     </row>
     <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="67"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
     </row>
     <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="67"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
     </row>
     <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="67"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
     </row>
     <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="67"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
     </row>
     <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="67"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
     </row>
     <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="67"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
     </row>
     <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="67"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
     </row>
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="71"/>
-      <c r="B21" s="72" t="s">
+      <c r="A21" s="59"/>
+      <c r="B21" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="72"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
     </row>
     <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="71"/>
-      <c r="B22" s="75"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
     </row>
     <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="71"/>
-      <c r="B23" s="72" t="s">
+      <c r="A23" s="59"/>
+      <c r="B23" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="72"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
     </row>
     <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="71"/>
-      <c r="B24" s="76" t="s">
+      <c r="A24" s="59"/>
+      <c r="B24" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="75"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
     </row>
     <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="71"/>
-      <c r="B25" s="75" t="s">
+      <c r="A25" s="59"/>
+      <c r="B25" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="75"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
     </row>
     <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="71"/>
-      <c r="B26" s="75" t="s">
+      <c r="A26" s="59"/>
+      <c r="B26" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="75"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
     </row>
     <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="77"/>
-      <c r="B27" s="75"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
+      <c r="A27" s="65"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
     </row>
     <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="71"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="79" t="s">
+      <c r="A28" s="59"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="80" t="s">
+      <c r="E28" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="F28" s="80"/>
+      <c r="F28" s="68"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="81"/>
-      <c r="B29" s="81"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="83"/>
+      <c r="A29" s="69"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
     </row>
     <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="84" t="s">
+      <c r="A30" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="84"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="85"/>
+      <c r="B30" s="151"/>
+      <c r="C30" s="151"/>
+      <c r="D30" s="151"/>
+      <c r="E30" s="151"/>
+      <c r="F30" s="72"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="86"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="86"/>
+      <c r="A31" s="73"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="87"/>
-      <c r="B32" s="88" t="s">
+      <c r="A32" s="74"/>
+      <c r="B32" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="89"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="91"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="78"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="92"/>
-      <c r="B33" s="93"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="91"/>
+      <c r="A33" s="79"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="78"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="92"/>
-      <c r="B34" s="94" t="s">
+      <c r="A34" s="79"/>
+      <c r="B34" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="95"/>
-      <c r="D34" s="96"/>
-      <c r="E34" s="96"/>
-      <c r="F34" s="97"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="84"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="92"/>
-      <c r="B35" s="94"/>
-      <c r="C35" s="98"/>
-      <c r="D35" s="96"/>
-      <c r="E35" s="96"/>
-      <c r="F35" s="97"/>
+      <c r="A35" s="79"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="83"/>
+      <c r="F35" s="84"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="92"/>
-      <c r="B36" s="94" t="s">
+      <c r="A36" s="79"/>
+      <c r="B36" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="95"/>
-      <c r="D36" s="96"/>
-      <c r="E36" s="96"/>
-      <c r="F36" s="97"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="83"/>
+      <c r="F36" s="84"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="92"/>
-      <c r="B37" s="94"/>
-      <c r="C37" s="95"/>
-      <c r="D37" s="96"/>
-      <c r="E37" s="96"/>
-      <c r="F37" s="97"/>
+      <c r="A37" s="79"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="84"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="92"/>
-      <c r="B38" s="94" t="s">
+      <c r="A38" s="79"/>
+      <c r="B38" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="95"/>
-      <c r="D38" s="96"/>
-      <c r="E38" s="96"/>
-      <c r="F38" s="97"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="84"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="92"/>
-      <c r="B39" s="94"/>
-      <c r="C39" s="95"/>
-      <c r="D39" s="96"/>
-      <c r="E39" s="96"/>
-      <c r="F39" s="97"/>
+      <c r="A39" s="79"/>
+      <c r="B39" s="81"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="83"/>
+      <c r="E39" s="83"/>
+      <c r="F39" s="84"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="92"/>
-      <c r="B40" s="94" t="s">
+      <c r="A40" s="79"/>
+      <c r="B40" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="98"/>
-      <c r="D40" s="96"/>
-      <c r="E40" s="96"/>
-      <c r="F40" s="97"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="84"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="92"/>
-      <c r="B41" s="94"/>
-      <c r="C41" s="95"/>
-      <c r="D41" s="96"/>
-      <c r="E41" s="96"/>
-      <c r="F41" s="97"/>
+      <c r="A41" s="79"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="82"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="83"/>
+      <c r="F41" s="84"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="92"/>
-      <c r="B42" s="94" t="s">
+      <c r="A42" s="79"/>
+      <c r="B42" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="C42" s="95"/>
-      <c r="D42" s="96"/>
-      <c r="E42" s="96"/>
-      <c r="F42" s="97"/>
+      <c r="C42" s="82"/>
+      <c r="D42" s="83"/>
+      <c r="E42" s="83"/>
+      <c r="F42" s="84"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="92"/>
-      <c r="B43" s="94"/>
-      <c r="C43" s="95"/>
-      <c r="D43" s="96"/>
-      <c r="E43" s="96"/>
-      <c r="F43" s="97"/>
+      <c r="A43" s="79"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="82"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="84"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="92"/>
-      <c r="B44" s="94"/>
-      <c r="C44" s="95"/>
-      <c r="D44" s="96"/>
-      <c r="E44" s="96"/>
-      <c r="F44" s="97"/>
+      <c r="A44" s="79"/>
+      <c r="B44" s="81"/>
+      <c r="C44" s="82"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="83"/>
+      <c r="F44" s="84"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="92"/>
-      <c r="B45" s="94"/>
-      <c r="C45" s="95"/>
-      <c r="D45" s="96"/>
-      <c r="E45" s="96"/>
-      <c r="F45" s="97"/>
+      <c r="A45" s="79"/>
+      <c r="B45" s="81"/>
+      <c r="C45" s="82"/>
+      <c r="D45" s="83"/>
+      <c r="E45" s="83"/>
+      <c r="F45" s="84"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="92"/>
-      <c r="B46" s="94"/>
-      <c r="C46" s="95"/>
-      <c r="D46" s="96"/>
-      <c r="E46" s="96"/>
-      <c r="F46" s="97"/>
+      <c r="A46" s="79"/>
+      <c r="B46" s="81"/>
+      <c r="C46" s="82"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="83"/>
+      <c r="F46" s="84"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="92"/>
-      <c r="B47" s="94"/>
-      <c r="C47" s="95"/>
-      <c r="D47" s="96"/>
-      <c r="E47" s="96"/>
-      <c r="F47" s="97"/>
+      <c r="A47" s="79"/>
+      <c r="B47" s="81"/>
+      <c r="C47" s="82"/>
+      <c r="D47" s="83"/>
+      <c r="E47" s="83"/>
+      <c r="F47" s="84"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="92"/>
-      <c r="B48" s="94"/>
-      <c r="C48" s="95"/>
-      <c r="D48" s="96"/>
-      <c r="E48" s="96"/>
-      <c r="F48" s="97"/>
+      <c r="A48" s="79"/>
+      <c r="B48" s="81"/>
+      <c r="C48" s="82"/>
+      <c r="D48" s="83"/>
+      <c r="E48" s="83"/>
+      <c r="F48" s="84"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="92"/>
-      <c r="B49" s="94"/>
-      <c r="C49" s="95"/>
-      <c r="D49" s="96"/>
-      <c r="E49" s="96"/>
-      <c r="F49" s="97"/>
+      <c r="A49" s="79"/>
+      <c r="B49" s="81"/>
+      <c r="C49" s="82"/>
+      <c r="D49" s="83"/>
+      <c r="E49" s="83"/>
+      <c r="F49" s="84"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="92"/>
-      <c r="B50" s="94"/>
-      <c r="C50" s="99"/>
-      <c r="D50" s="99"/>
-      <c r="E50" s="96"/>
-      <c r="F50" s="97"/>
+      <c r="A50" s="79"/>
+      <c r="B50" s="81"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="83"/>
+      <c r="F50" s="84"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="92"/>
-      <c r="B51" s="94"/>
-      <c r="C51" s="95"/>
-      <c r="D51" s="96"/>
-      <c r="E51" s="96"/>
-      <c r="F51" s="97"/>
+      <c r="A51" s="79"/>
+      <c r="B51" s="81"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="83"/>
+      <c r="E51" s="83"/>
+      <c r="F51" s="84"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="92"/>
-      <c r="B52" s="94"/>
-      <c r="C52" s="95"/>
-      <c r="D52" s="96"/>
-      <c r="E52" s="96"/>
-      <c r="F52" s="97"/>
+      <c r="A52" s="79"/>
+      <c r="B52" s="81"/>
+      <c r="C52" s="82"/>
+      <c r="D52" s="83"/>
+      <c r="E52" s="83"/>
+      <c r="F52" s="84"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="92"/>
-      <c r="B53" s="94"/>
-      <c r="C53" s="95"/>
-      <c r="D53" s="96"/>
-      <c r="E53" s="96"/>
-      <c r="F53" s="97"/>
+      <c r="A53" s="79"/>
+      <c r="B53" s="81"/>
+      <c r="C53" s="82"/>
+      <c r="D53" s="83"/>
+      <c r="E53" s="83"/>
+      <c r="F53" s="84"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="92"/>
-      <c r="B54" s="94"/>
-      <c r="C54" s="95"/>
-      <c r="D54" s="96"/>
-      <c r="E54" s="96"/>
-      <c r="F54" s="97"/>
+      <c r="A54" s="79"/>
+      <c r="B54" s="81"/>
+      <c r="C54" s="82"/>
+      <c r="D54" s="83"/>
+      <c r="E54" s="83"/>
+      <c r="F54" s="84"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="92"/>
-      <c r="B55" s="94"/>
-      <c r="C55" s="95"/>
-      <c r="D55" s="96"/>
-      <c r="E55" s="96"/>
-      <c r="F55" s="97"/>
+      <c r="A55" s="79"/>
+      <c r="B55" s="81"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="83"/>
+      <c r="E55" s="83"/>
+      <c r="F55" s="84"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="92"/>
-      <c r="B56" s="94"/>
-      <c r="C56" s="95"/>
-      <c r="D56" s="96"/>
-      <c r="E56" s="96"/>
-      <c r="F56" s="97"/>
+      <c r="A56" s="79"/>
+      <c r="B56" s="81"/>
+      <c r="C56" s="82"/>
+      <c r="D56" s="83"/>
+      <c r="E56" s="83"/>
+      <c r="F56" s="84"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="92"/>
-      <c r="B57" s="94"/>
-      <c r="C57" s="95"/>
-      <c r="D57" s="96"/>
-      <c r="E57" s="96"/>
-      <c r="F57" s="97"/>
+      <c r="A57" s="79"/>
+      <c r="B57" s="81"/>
+      <c r="C57" s="82"/>
+      <c r="D57" s="83"/>
+      <c r="E57" s="83"/>
+      <c r="F57" s="84"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="92"/>
-      <c r="B58" s="94"/>
-      <c r="C58" s="95"/>
-      <c r="D58" s="96"/>
-      <c r="E58" s="96"/>
-      <c r="F58" s="97"/>
+      <c r="A58" s="79"/>
+      <c r="B58" s="81"/>
+      <c r="C58" s="82"/>
+      <c r="D58" s="83"/>
+      <c r="E58" s="83"/>
+      <c r="F58" s="84"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="92"/>
-      <c r="B59" s="100"/>
-      <c r="C59" s="95"/>
-      <c r="D59" s="96"/>
-      <c r="E59" s="96"/>
-      <c r="F59" s="97"/>
+      <c r="A59" s="79"/>
+      <c r="B59" s="87"/>
+      <c r="C59" s="82"/>
+      <c r="D59" s="83"/>
+      <c r="E59" s="83"/>
+      <c r="F59" s="84"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="92"/>
-      <c r="B60" s="100"/>
-      <c r="C60" s="95"/>
-      <c r="D60" s="96"/>
-      <c r="E60" s="96"/>
-      <c r="F60" s="97"/>
+      <c r="A60" s="79"/>
+      <c r="B60" s="87"/>
+      <c r="C60" s="82"/>
+      <c r="D60" s="83"/>
+      <c r="E60" s="83"/>
+      <c r="F60" s="84"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="92"/>
-      <c r="B61" s="100"/>
-      <c r="C61" s="95"/>
-      <c r="D61" s="96"/>
-      <c r="E61" s="96"/>
-      <c r="F61" s="97"/>
+      <c r="A61" s="79"/>
+      <c r="B61" s="87"/>
+      <c r="C61" s="82"/>
+      <c r="D61" s="83"/>
+      <c r="E61" s="83"/>
+      <c r="F61" s="84"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="92"/>
-      <c r="B62" s="100"/>
-      <c r="C62" s="95"/>
-      <c r="D62" s="96"/>
-      <c r="E62" s="96"/>
-      <c r="F62" s="97"/>
+      <c r="A62" s="79"/>
+      <c r="B62" s="87"/>
+      <c r="C62" s="82"/>
+      <c r="D62" s="83"/>
+      <c r="E62" s="83"/>
+      <c r="F62" s="84"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="92"/>
-      <c r="B63" s="101"/>
-      <c r="C63" s="102"/>
-      <c r="D63" s="103"/>
-      <c r="E63" s="96"/>
-      <c r="F63" s="97"/>
+      <c r="A63" s="79"/>
+      <c r="B63" s="88"/>
+      <c r="C63" s="89"/>
+      <c r="D63" s="90"/>
+      <c r="E63" s="83"/>
+      <c r="F63" s="84"/>
     </row>
     <row r="64" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A64" s="92"/>
-      <c r="B64" s="101"/>
-      <c r="C64" s="104"/>
-      <c r="D64" s="105"/>
-      <c r="E64" s="97"/>
-      <c r="F64" s="97"/>
+      <c r="A64" s="79"/>
+      <c r="B64" s="88"/>
+      <c r="C64" s="91"/>
+      <c r="D64" s="92"/>
+      <c r="E64" s="84"/>
+      <c r="F64" s="84"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A65" s="92"/>
-      <c r="B65" s="100"/>
-      <c r="C65" s="106" t="s">
+      <c r="A65" s="79"/>
+      <c r="B65" s="87"/>
+      <c r="C65" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="D65" s="107" t="s">
+      <c r="D65" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="E65" s="97"/>
-      <c r="F65" s="97"/>
+      <c r="E65" s="84"/>
+      <c r="F65" s="84"/>
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="92"/>
-      <c r="B66" s="108"/>
-      <c r="C66" s="109">
+      <c r="A66" s="79"/>
+      <c r="B66" s="95"/>
+      <c r="C66" s="96">
         <v>5</v>
       </c>
-      <c r="D66" s="110">
+      <c r="D66" s="97">
         <v>350</v>
       </c>
-      <c r="E66" s="111"/>
-      <c r="F66" s="111"/>
+      <c r="E66" s="98"/>
+      <c r="F66" s="98"/>
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="93"/>
-      <c r="B67" s="101"/>
-      <c r="C67" s="112"/>
-      <c r="D67" s="112"/>
-      <c r="E67" s="97"/>
-      <c r="F67" s="97"/>
+      <c r="A67" s="80"/>
+      <c r="B67" s="88"/>
+      <c r="C67" s="99"/>
+      <c r="D67" s="99"/>
+      <c r="E67" s="84"/>
+      <c r="F67" s="84"/>
     </row>
     <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A68" s="93"/>
-      <c r="B68" s="113"/>
-      <c r="C68" s="114"/>
-      <c r="D68" s="114"/>
-      <c r="E68" s="114"/>
-      <c r="F68" s="93"/>
+      <c r="A68" s="80"/>
+      <c r="B68" s="100"/>
+      <c r="C68" s="101"/>
+      <c r="D68" s="101"/>
+      <c r="E68" s="101"/>
+      <c r="F68" s="80"/>
     </row>
     <row r="69" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A69" s="115"/>
-      <c r="B69" s="116" t="s">
+      <c r="A69" s="102"/>
+      <c r="B69" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="C69" s="116"/>
-      <c r="D69" s="73"/>
-      <c r="E69" s="117">
+      <c r="C69" s="103"/>
+      <c r="D69" s="61"/>
+      <c r="E69" s="104">
         <v>1750</v>
       </c>
-      <c r="F69" s="118"/>
+      <c r="F69" s="105"/>
     </row>
     <row r="70" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A70" s="115"/>
-      <c r="B70" s="119" t="s">
+      <c r="A70" s="102"/>
+      <c r="B70" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="C70" s="120"/>
-      <c r="D70" s="73"/>
-      <c r="E70" s="121">
+      <c r="C70" s="107"/>
+      <c r="D70" s="61"/>
+      <c r="E70" s="108">
         <v>0</v>
       </c>
-      <c r="F70" s="121"/>
+      <c r="F70" s="108"/>
     </row>
     <row r="71" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A71" s="115"/>
-      <c r="B71" s="122" t="s">
+      <c r="A71" s="102"/>
+      <c r="B71" s="109" t="s">
         <v>80</v>
       </c>
-      <c r="C71" s="120"/>
-      <c r="D71" s="73"/>
-      <c r="E71" s="121">
+      <c r="C71" s="107"/>
+      <c r="D71" s="61"/>
+      <c r="E71" s="108">
         <v>0</v>
       </c>
-      <c r="F71" s="121"/>
+      <c r="F71" s="108"/>
     </row>
     <row r="72" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A72" s="115"/>
-      <c r="B72" s="122" t="s">
+      <c r="A72" s="102"/>
+      <c r="B72" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="C72" s="120"/>
-      <c r="D72" s="73"/>
-      <c r="E72" s="121">
+      <c r="C72" s="107"/>
+      <c r="D72" s="61"/>
+      <c r="E72" s="108">
         <v>0</v>
       </c>
-      <c r="F72" s="121"/>
+      <c r="F72" s="108"/>
     </row>
     <row r="73" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A73" s="115"/>
-      <c r="B73" s="72" t="s">
+      <c r="A73" s="102"/>
+      <c r="B73" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="C73" s="116"/>
-      <c r="D73" s="73"/>
-      <c r="E73" s="123">
+      <c r="C73" s="103"/>
+      <c r="D73" s="61"/>
+      <c r="E73" s="110">
         <v>1750</v>
       </c>
-      <c r="F73" s="123"/>
+      <c r="F73" s="110"/>
     </row>
     <row r="74" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A74" s="115"/>
-      <c r="B74" s="120" t="s">
+      <c r="A74" s="102"/>
+      <c r="B74" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="124">
+      <c r="C74" s="111">
         <v>0.05</v>
       </c>
-      <c r="D74" s="120"/>
-      <c r="E74" s="125">
+      <c r="D74" s="107"/>
+      <c r="E74" s="112">
         <v>87.5</v>
       </c>
-      <c r="F74" s="125"/>
+      <c r="F74" s="112"/>
     </row>
     <row r="75" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A75" s="115"/>
-      <c r="B75" s="126" t="s">
+      <c r="A75" s="102"/>
+      <c r="B75" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="C75" s="127">
+      <c r="C75" s="114">
         <v>9.9750000000000005E-2</v>
       </c>
-      <c r="D75" s="120"/>
-      <c r="E75" s="128">
+      <c r="D75" s="107"/>
+      <c r="E75" s="115">
         <v>174.56</v>
       </c>
-      <c r="F75" s="125"/>
+      <c r="F75" s="112"/>
     </row>
     <row r="76" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A76" s="115"/>
-      <c r="B76" s="129"/>
-      <c r="C76" s="75"/>
-      <c r="D76" s="73"/>
-      <c r="E76" s="74"/>
-      <c r="F76" s="130"/>
+      <c r="A76" s="102"/>
+      <c r="B76" s="116"/>
+      <c r="C76" s="63"/>
+      <c r="D76" s="61"/>
+      <c r="E76" s="62"/>
+      <c r="F76" s="117"/>
     </row>
     <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="115"/>
-      <c r="B77" s="131" t="s">
+      <c r="A77" s="102"/>
+      <c r="B77" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="116"/>
-      <c r="D77" s="132"/>
-      <c r="E77" s="133">
+      <c r="C77" s="103"/>
+      <c r="D77" s="119"/>
+      <c r="E77" s="120">
         <v>2012.06</v>
       </c>
-      <c r="F77" s="134"/>
+      <c r="F77" s="121"/>
     </row>
     <row r="78" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="115"/>
-      <c r="B78" s="126"/>
-      <c r="C78" s="126"/>
-      <c r="D78" s="126"/>
-      <c r="E78" s="135"/>
-      <c r="F78" s="136"/>
+      <c r="A78" s="102"/>
+      <c r="B78" s="113"/>
+      <c r="C78" s="113"/>
+      <c r="D78" s="113"/>
+      <c r="E78" s="122"/>
+      <c r="F78" s="123"/>
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A79" s="115"/>
-      <c r="B79" s="129" t="s">
+      <c r="A79" s="102"/>
+      <c r="B79" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="C79" s="126"/>
-      <c r="D79" s="73"/>
-      <c r="E79" s="74">
+      <c r="C79" s="113"/>
+      <c r="D79" s="61"/>
+      <c r="E79" s="62">
         <v>0</v>
       </c>
-      <c r="F79" s="130"/>
+      <c r="F79" s="117"/>
     </row>
     <row r="80" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A80" s="115"/>
-      <c r="B80" s="137"/>
-      <c r="C80" s="136"/>
-      <c r="D80" s="138"/>
-      <c r="E80" s="139"/>
-      <c r="F80" s="138"/>
+      <c r="A80" s="102"/>
+      <c r="B80" s="124"/>
+      <c r="C80" s="123"/>
+      <c r="D80" s="125"/>
+      <c r="E80" s="126"/>
+      <c r="F80" s="125"/>
     </row>
     <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A81" s="75"/>
-      <c r="B81" s="140" t="s">
+      <c r="A81" s="63"/>
+      <c r="B81" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="C81" s="141"/>
-      <c r="D81" s="142"/>
-      <c r="E81" s="143">
+      <c r="C81" s="153"/>
+      <c r="D81" s="127"/>
+      <c r="E81" s="128">
         <v>2012.06</v>
       </c>
-      <c r="F81" s="144"/>
+      <c r="F81" s="129"/>
     </row>
     <row r="82" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A82" s="75"/>
-      <c r="B82" s="75"/>
-      <c r="C82" s="75"/>
-      <c r="D82" s="145"/>
-      <c r="E82" s="144"/>
-      <c r="F82" s="144"/>
+      <c r="A82" s="63"/>
+      <c r="B82" s="63"/>
+      <c r="C82" s="63"/>
+      <c r="D82" s="130"/>
+      <c r="E82" s="129"/>
+      <c r="F82" s="129"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="146"/>
-      <c r="B83" s="147"/>
-      <c r="C83" s="148"/>
-      <c r="D83" s="149"/>
-      <c r="E83" s="149"/>
-      <c r="F83" s="150"/>
+      <c r="A83" s="131"/>
+      <c r="B83" s="154"/>
+      <c r="C83" s="155"/>
+      <c r="D83" s="156"/>
+      <c r="E83" s="156"/>
+      <c r="F83" s="132"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="151" t="s">
+      <c r="A84" s="157" t="s">
         <v>37</v>
       </c>
-      <c r="B84" s="151"/>
-      <c r="C84" s="151"/>
-      <c r="D84" s="152"/>
-      <c r="E84" s="152"/>
-      <c r="F84" s="67"/>
+      <c r="B84" s="157"/>
+      <c r="C84" s="157"/>
+      <c r="D84" s="158"/>
+      <c r="E84" s="158"/>
+      <c r="F84" s="55"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="153" t="s">
+      <c r="A85" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="B85" s="153"/>
-      <c r="C85" s="153"/>
-      <c r="D85" s="154"/>
-      <c r="E85" s="154"/>
+      <c r="B85" s="159"/>
+      <c r="C85" s="159"/>
+      <c r="D85" s="160"/>
+      <c r="E85" s="160"/>
       <c r="F85" s="51"/>
     </row>
     <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="155"/>
-      <c r="B86" s="155"/>
-      <c r="C86" s="155"/>
-      <c r="D86" s="156"/>
-      <c r="E86" s="156"/>
+      <c r="A86" s="133"/>
+      <c r="B86" s="133"/>
+      <c r="C86" s="133"/>
+      <c r="D86" s="134"/>
+      <c r="E86" s="134"/>
       <c r="F86" s="51"/>
     </row>
     <row r="87" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A87" s="155"/>
-      <c r="B87" s="155"/>
-      <c r="C87" s="155"/>
-      <c r="D87" s="156"/>
-      <c r="E87" s="156"/>
+      <c r="A87" s="133"/>
+      <c r="B87" s="133"/>
+      <c r="C87" s="133"/>
+      <c r="D87" s="134"/>
+      <c r="E87" s="134"/>
       <c r="F87" s="51"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="64" t="s">
+      <c r="A88" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="64"/>
-      <c r="C88" s="64"/>
-      <c r="D88" s="64"/>
-      <c r="E88" s="64"/>
-      <c r="F88" s="64"/>
+      <c r="B88" s="137"/>
+      <c r="C88" s="137"/>
+      <c r="D88" s="137"/>
+      <c r="E88" s="137"/>
+      <c r="F88" s="137"/>
     </row>
     <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A89" s="75"/>
-      <c r="B89" s="157"/>
-      <c r="C89" s="157"/>
-      <c r="D89" s="158"/>
-      <c r="E89" s="158"/>
+      <c r="A89" s="63"/>
+      <c r="B89" s="149"/>
+      <c r="C89" s="149"/>
+      <c r="D89" s="150"/>
+      <c r="E89" s="150"/>
       <c r="F89" s="51"/>
     </row>
   </sheetData>
@@ -4084,4 +4293,839 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83788CE-A026-490B-A451-824D1D11DE6C}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="55"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="55"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="55"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="55"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="161"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="55"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="55"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="55"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="55"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="55"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="55"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="55"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="55"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="55"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="55"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="55"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="63"/>
+      <c r="B21" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="60"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="63"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="63"/>
+      <c r="B23" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="60"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="63"/>
+      <c r="B24" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="63"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="63"/>
+      <c r="B25" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="63"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="63"/>
+      <c r="B26" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="63"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="60"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="63"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="68"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="162"/>
+      <c r="B29" s="162"/>
+      <c r="C29" s="162"/>
+      <c r="D29" s="163"/>
+      <c r="E29" s="164"/>
+      <c r="F29" s="164"/>
+    </row>
+    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="165" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="165"/>
+      <c r="C30" s="165"/>
+      <c r="D30" s="165"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="166"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="167"/>
+      <c r="B31" s="167"/>
+      <c r="C31" s="167"/>
+      <c r="D31" s="167"/>
+      <c r="E31" s="167"/>
+      <c r="F31" s="167"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="79"/>
+      <c r="B32" s="116" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="168"/>
+      <c r="D32" s="169"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="94"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="79"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="169"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="94"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="79"/>
+      <c r="B34" s="170" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="171"/>
+      <c r="D34" s="172"/>
+      <c r="E34" s="172"/>
+      <c r="F34" s="172"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="79"/>
+      <c r="B35" s="170" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="173"/>
+      <c r="D35" s="172"/>
+      <c r="E35" s="172"/>
+      <c r="F35" s="172"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="79"/>
+      <c r="B36" s="170" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="171"/>
+      <c r="D36" s="172"/>
+      <c r="E36" s="172"/>
+      <c r="F36" s="172"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="79"/>
+      <c r="B37" s="170" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="171"/>
+      <c r="D37" s="172"/>
+      <c r="E37" s="172"/>
+      <c r="F37" s="172"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="79"/>
+      <c r="B38" s="170" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="171"/>
+      <c r="D38" s="172"/>
+      <c r="E38" s="172"/>
+      <c r="F38" s="172"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="79"/>
+      <c r="B39" s="170" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="171"/>
+      <c r="D39" s="172"/>
+      <c r="E39" s="172"/>
+      <c r="F39" s="172"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="79"/>
+      <c r="B40" s="170" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="173"/>
+      <c r="D40" s="172"/>
+      <c r="E40" s="172"/>
+      <c r="F40" s="172"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="79"/>
+      <c r="B41" s="170" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="171"/>
+      <c r="D41" s="172"/>
+      <c r="E41" s="172"/>
+      <c r="F41" s="172"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="79"/>
+      <c r="B42" s="170" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="171"/>
+      <c r="D42" s="172"/>
+      <c r="E42" s="172"/>
+      <c r="F42" s="172"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="79"/>
+      <c r="B43" s="170"/>
+      <c r="C43" s="171"/>
+      <c r="D43" s="172"/>
+      <c r="E43" s="172"/>
+      <c r="F43" s="172"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="79"/>
+      <c r="B44" s="170"/>
+      <c r="C44" s="171"/>
+      <c r="D44" s="172"/>
+      <c r="E44" s="172"/>
+      <c r="F44" s="172"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="79"/>
+      <c r="B45" s="170"/>
+      <c r="C45" s="171"/>
+      <c r="D45" s="172"/>
+      <c r="E45" s="172"/>
+      <c r="F45" s="172"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="79"/>
+      <c r="B46" s="170"/>
+      <c r="C46" s="171"/>
+      <c r="D46" s="172"/>
+      <c r="E46" s="172"/>
+      <c r="F46" s="172"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="79"/>
+      <c r="B47" s="170"/>
+      <c r="C47" s="171"/>
+      <c r="D47" s="172"/>
+      <c r="E47" s="172"/>
+      <c r="F47" s="172"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="79"/>
+      <c r="B48" s="170"/>
+      <c r="C48" s="171"/>
+      <c r="D48" s="172"/>
+      <c r="E48" s="172"/>
+      <c r="F48" s="172"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="79"/>
+      <c r="B49" s="170"/>
+      <c r="C49" s="171"/>
+      <c r="D49" s="172"/>
+      <c r="E49" s="172"/>
+      <c r="F49" s="172"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="79"/>
+      <c r="B50" s="170"/>
+      <c r="C50" s="174"/>
+      <c r="D50" s="174"/>
+      <c r="E50" s="172"/>
+      <c r="F50" s="172"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="79"/>
+      <c r="B51" s="170"/>
+      <c r="C51" s="171"/>
+      <c r="D51" s="172"/>
+      <c r="E51" s="172"/>
+      <c r="F51" s="172"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="79"/>
+      <c r="B52" s="170"/>
+      <c r="C52" s="171"/>
+      <c r="D52" s="172"/>
+      <c r="E52" s="172"/>
+      <c r="F52" s="172"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="79"/>
+      <c r="B53" s="170"/>
+      <c r="C53" s="171"/>
+      <c r="D53" s="172"/>
+      <c r="E53" s="172"/>
+      <c r="F53" s="172"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="79"/>
+      <c r="B54" s="170"/>
+      <c r="C54" s="171"/>
+      <c r="D54" s="172"/>
+      <c r="E54" s="172"/>
+      <c r="F54" s="172"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="79"/>
+      <c r="B55" s="170"/>
+      <c r="C55" s="171"/>
+      <c r="D55" s="172"/>
+      <c r="E55" s="172"/>
+      <c r="F55" s="172"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="79"/>
+      <c r="B56" s="170"/>
+      <c r="C56" s="171"/>
+      <c r="D56" s="172"/>
+      <c r="E56" s="172"/>
+      <c r="F56" s="172"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="79"/>
+      <c r="B57" s="170"/>
+      <c r="C57" s="171"/>
+      <c r="D57" s="172"/>
+      <c r="E57" s="172"/>
+      <c r="F57" s="172"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="79"/>
+      <c r="B58" s="170"/>
+      <c r="C58" s="171"/>
+      <c r="D58" s="172"/>
+      <c r="E58" s="172"/>
+      <c r="F58" s="172"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="79"/>
+      <c r="B59" s="170"/>
+      <c r="C59" s="171"/>
+      <c r="D59" s="172"/>
+      <c r="E59" s="172"/>
+      <c r="F59" s="172"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="79"/>
+      <c r="B60" s="170"/>
+      <c r="C60" s="171"/>
+      <c r="D60" s="172"/>
+      <c r="E60" s="172"/>
+      <c r="F60" s="172"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="79"/>
+      <c r="B61" s="170"/>
+      <c r="C61" s="171"/>
+      <c r="D61" s="172"/>
+      <c r="E61" s="172"/>
+      <c r="F61" s="172"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="79"/>
+      <c r="B62" s="170"/>
+      <c r="C62" s="171"/>
+      <c r="D62" s="172"/>
+      <c r="E62" s="172"/>
+      <c r="F62" s="172"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="79"/>
+      <c r="B63" s="175"/>
+      <c r="C63" s="176"/>
+      <c r="D63" s="177"/>
+      <c r="E63" s="172"/>
+      <c r="F63" s="172"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="79"/>
+      <c r="B64" s="175"/>
+      <c r="C64" s="93"/>
+      <c r="D64" s="94"/>
+      <c r="E64" s="172"/>
+      <c r="F64" s="172"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="79"/>
+      <c r="B65" s="170"/>
+      <c r="C65" s="178" t="s">
+        <v>45</v>
+      </c>
+      <c r="D65" s="179" t="s">
+        <v>46</v>
+      </c>
+      <c r="E65" s="172"/>
+      <c r="F65" s="172"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="79"/>
+      <c r="B66" s="170"/>
+      <c r="C66" s="180">
+        <v>15.75</v>
+      </c>
+      <c r="D66" s="181">
+        <v>385</v>
+      </c>
+      <c r="E66" s="182"/>
+      <c r="F66" s="182"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="79"/>
+      <c r="B67" s="175"/>
+      <c r="C67" s="180"/>
+      <c r="D67" s="181"/>
+      <c r="E67" s="172"/>
+      <c r="F67" s="172"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="79"/>
+      <c r="B68" s="175"/>
+      <c r="C68" s="183"/>
+      <c r="D68" s="183"/>
+      <c r="E68" s="183"/>
+      <c r="F68" s="79"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="63"/>
+      <c r="B69" s="103" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" s="103"/>
+      <c r="D69" s="61"/>
+      <c r="E69" s="104">
+        <v>6063.75</v>
+      </c>
+      <c r="F69" s="104"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="63"/>
+      <c r="B70" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="107"/>
+      <c r="D70" s="61"/>
+      <c r="E70" s="108">
+        <v>0</v>
+      </c>
+      <c r="F70" s="108"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="63"/>
+      <c r="B71" s="184" t="s">
+        <v>80</v>
+      </c>
+      <c r="C71" s="107"/>
+      <c r="D71" s="61"/>
+      <c r="E71" s="108">
+        <v>0</v>
+      </c>
+      <c r="F71" s="108"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="63"/>
+      <c r="B72" s="184" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="107"/>
+      <c r="D72" s="61"/>
+      <c r="E72" s="108">
+        <v>0</v>
+      </c>
+      <c r="F72" s="108"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="63"/>
+      <c r="B73" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" s="103"/>
+      <c r="D73" s="61"/>
+      <c r="E73" s="110">
+        <v>6063.75</v>
+      </c>
+      <c r="F73" s="110"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="63"/>
+      <c r="B74" s="107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="111">
+        <v>0.05</v>
+      </c>
+      <c r="D74" s="107"/>
+      <c r="E74" s="112">
+        <v>303.19</v>
+      </c>
+      <c r="F74" s="112"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="63"/>
+      <c r="B75" s="113" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="114">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D75" s="107"/>
+      <c r="E75" s="115">
+        <v>604.86</v>
+      </c>
+      <c r="F75" s="112"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="63"/>
+      <c r="B76" s="116"/>
+      <c r="C76" s="63"/>
+      <c r="D76" s="61"/>
+      <c r="E76" s="62"/>
+      <c r="F76" s="62"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="63"/>
+      <c r="B77" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" s="103"/>
+      <c r="D77" s="119"/>
+      <c r="E77" s="120">
+        <v>6971.7999999999993</v>
+      </c>
+      <c r="F77" s="121"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="63"/>
+      <c r="B78" s="113"/>
+      <c r="C78" s="113"/>
+      <c r="D78" s="113"/>
+      <c r="E78" s="122"/>
+      <c r="F78" s="113"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="63"/>
+      <c r="B79" s="116" t="s">
+        <v>20</v>
+      </c>
+      <c r="C79" s="113"/>
+      <c r="D79" s="61"/>
+      <c r="E79" s="62">
+        <v>0</v>
+      </c>
+      <c r="F79" s="62"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="63"/>
+      <c r="B80" s="103"/>
+      <c r="C80" s="113"/>
+      <c r="D80" s="113"/>
+      <c r="E80" s="122"/>
+      <c r="F80" s="113"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="63"/>
+      <c r="B81" s="185" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" s="186"/>
+      <c r="D81" s="187"/>
+      <c r="E81" s="188">
+        <v>6971.7999999999993</v>
+      </c>
+      <c r="F81" s="62"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="63"/>
+      <c r="B82" s="63"/>
+      <c r="C82" s="63"/>
+      <c r="D82" s="61"/>
+      <c r="E82" s="62"/>
+      <c r="F82" s="62"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="131"/>
+      <c r="B83" s="154"/>
+      <c r="C83" s="155"/>
+      <c r="D83" s="155"/>
+      <c r="E83" s="155"/>
+      <c r="F83" s="189"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="157" t="s">
+        <v>37</v>
+      </c>
+      <c r="B84" s="157"/>
+      <c r="C84" s="157"/>
+      <c r="D84" s="157"/>
+      <c r="E84" s="157"/>
+      <c r="F84" s="116"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="159" t="s">
+        <v>38</v>
+      </c>
+      <c r="B85" s="159"/>
+      <c r="C85" s="159"/>
+      <c r="D85" s="159"/>
+      <c r="E85" s="159"/>
+      <c r="F85" s="47"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="133"/>
+      <c r="B86" s="133"/>
+      <c r="C86" s="133"/>
+      <c r="D86" s="133"/>
+      <c r="E86" s="133"/>
+      <c r="F86" s="47"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="133"/>
+      <c r="B87" s="133"/>
+      <c r="C87" s="133"/>
+      <c r="D87" s="133"/>
+      <c r="E87" s="133"/>
+      <c r="F87" s="47"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="190" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="190"/>
+      <c r="C88" s="190"/>
+      <c r="D88" s="190"/>
+      <c r="E88" s="190"/>
+      <c r="F88" s="190"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A88:F88"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="119" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>